--- a/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B06-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>16538</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8898</v>
+        <v>9506</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26323</v>
+        <v>26769</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01604616158229484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008633494670601224</v>
+        <v>0.009223090784341081</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02553909381869948</v>
+        <v>0.0259719522850751</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -764,19 +764,19 @@
         <v>10373</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5204</v>
+        <v>4891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19683</v>
+        <v>18527</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007893318079943954</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003960082956716428</v>
+        <v>0.003721789332314489</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01497771075165745</v>
+        <v>0.0140984519698123</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>25</v>
@@ -785,19 +785,19 @@
         <v>26911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17382</v>
+        <v>17433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38771</v>
+        <v>38243</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01147695608825742</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007413137987186792</v>
+        <v>0.007434653847383686</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01653472602702429</v>
+        <v>0.0163095015391154</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>58310</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45480</v>
+        <v>44087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74965</v>
+        <v>75246</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05657437998916775</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04412593612378235</v>
+        <v>0.04277499061241622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07273373509754293</v>
+        <v>0.07300619446357386</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>36</v>
@@ -835,19 +835,19 @@
         <v>37240</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25808</v>
+        <v>26114</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>50051</v>
+        <v>50456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02833768070362277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0196386517229447</v>
+        <v>0.01987135263085983</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03808693770891465</v>
+        <v>0.03839461214572599</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -856,19 +856,19 @@
         <v>95550</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77729</v>
+        <v>79124</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115885</v>
+        <v>118753</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0407493146028652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03314935116209364</v>
+        <v>0.03374424929669287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04942180900846874</v>
+        <v>0.0506447296385431</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>164541</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>141726</v>
+        <v>143164</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>188325</v>
+        <v>188622</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1596432561292935</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1375071175193817</v>
+        <v>0.1389023711114699</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1827186401506324</v>
+        <v>0.1830069049394777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>165</v>
@@ -906,19 +906,19 @@
         <v>170054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>144894</v>
+        <v>146152</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>194757</v>
+        <v>194520</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.129403191808039</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1102582698904563</v>
+        <v>0.1112148483788256</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1482016204327374</v>
+        <v>0.1480207568620353</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>329</v>
@@ -927,19 +927,19 @@
         <v>334595</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>298114</v>
+        <v>301061</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>367378</v>
+        <v>368787</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1426954184826027</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1271374825021053</v>
+        <v>0.1283939825147134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1566765431871195</v>
+        <v>0.1572775034063651</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>240978</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>214700</v>
+        <v>214082</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>269438</v>
+        <v>270402</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2338048761920287</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2083089447955526</v>
+        <v>0.2077091014754738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2614176257996694</v>
+        <v>0.2623531177606888</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>303</v>
@@ -977,19 +977,19 @@
         <v>306265</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>279014</v>
+        <v>278320</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>340931</v>
+        <v>339335</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2330540788456881</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2123173143407418</v>
+        <v>0.2117888160984966</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2594333034372594</v>
+        <v>0.2582188441085628</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -998,19 +998,19 @@
         <v>547243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>507432</v>
+        <v>508866</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>587562</v>
+        <v>589888</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2333840969438046</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2164057577001684</v>
+        <v>0.2170172090475675</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.250578747812127</v>
+        <v>0.2515709520434216</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>550313</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>520026</v>
+        <v>514157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>582874</v>
+        <v>581390</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5339313261072152</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5045457490741475</v>
+        <v>0.4988515984541708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.565523574882173</v>
+        <v>0.5640833751930182</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>776</v>
@@ -1048,19 +1048,19 @@
         <v>790206</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>753861</v>
+        <v>755587</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>824984</v>
+        <v>824253</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6013117305627061</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5736544242452212</v>
+        <v>0.5749685156410493</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6277763055063028</v>
+        <v>0.6272198184187966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1337</v>
@@ -1069,19 +1069,19 @@
         <v>1340519</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1298276</v>
+        <v>1291690</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1388853</v>
+        <v>1388166</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5716942138824701</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5536790002097433</v>
+        <v>0.5508698499852835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5923075394431584</v>
+        <v>0.5920145169370621</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>46654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>34535</v>
+        <v>34252</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61586</v>
+        <v>61686</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02758031013753323</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02041600850056698</v>
+        <v>0.02024842445075365</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03640729700845297</v>
+        <v>0.03646666545881873</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>47</v>
@@ -1194,19 +1194,19 @@
         <v>47580</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36163</v>
+        <v>34797</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61876</v>
+        <v>62312</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02998857619295699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02279257066236868</v>
+        <v>0.02193166102985022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03899854686254246</v>
+        <v>0.03927334438397029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>93</v>
@@ -1215,19 +1215,19 @@
         <v>94235</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>76948</v>
+        <v>76930</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>117689</v>
+        <v>114985</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02874588620088938</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02347263948532471</v>
+        <v>0.02346712562934231</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0359006663242452</v>
+        <v>0.03507574710813643</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>101381</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>83782</v>
+        <v>83043</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>123532</v>
+        <v>122502</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.05993255453875557</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04952860332101176</v>
+        <v>0.0490920637951037</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07302755070278777</v>
+        <v>0.07241836109987623</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>62</v>
@@ -1265,19 +1265,19 @@
         <v>63675</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>49660</v>
+        <v>49630</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>80796</v>
+        <v>82553</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04013293091764256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03129931960970347</v>
+        <v>0.03128031281364554</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05092361568862428</v>
+        <v>0.05203064827358922</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>161</v>
@@ -1286,19 +1286,19 @@
         <v>165056</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>142306</v>
+        <v>143469</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>192130</v>
+        <v>191968</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05034973983925196</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04340994724866753</v>
+        <v>0.04376447918209986</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05860857433160473</v>
+        <v>0.05855888529992</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>263772</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>235668</v>
+        <v>233417</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>296084</v>
+        <v>293610</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1559317902166414</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1393182822904417</v>
+        <v>0.1379875725565209</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1750336647170721</v>
+        <v>0.1735713637261372</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>216</v>
@@ -1336,19 +1336,19 @@
         <v>214143</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>190543</v>
+        <v>188204</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>245586</v>
+        <v>242906</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1349685502727755</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1200938896408004</v>
+        <v>0.118619889991714</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1547863654308405</v>
+        <v>0.1530972735221219</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>475</v>
@@ -1357,19 +1357,19 @@
         <v>477914</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>439325</v>
+        <v>438786</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>525238</v>
+        <v>519367</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.145785797154981</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1340142823660975</v>
+        <v>0.1338497171113994</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1602217026239582</v>
+        <v>0.158430873179611</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>547554</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>505672</v>
+        <v>509970</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>584901</v>
+        <v>590770</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3236933834940584</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2989342992155238</v>
+        <v>0.3014748325914056</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3457712364382401</v>
+        <v>0.3492410464828135</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>426</v>
@@ -1407,19 +1407,19 @@
         <v>434682</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>396898</v>
+        <v>398997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>468913</v>
+        <v>471958</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2739682447749109</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2501541814200213</v>
+        <v>0.2514773718003698</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2955436285812711</v>
+        <v>0.2974626935211476</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>953</v>
@@ -1428,19 +1428,19 @@
         <v>982236</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>931299</v>
+        <v>929135</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1034095</v>
+        <v>1032500</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2996269265062302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2840889059234844</v>
+        <v>0.2834287209535685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3154462535369417</v>
+        <v>0.3149598213279945</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>732222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>691665</v>
+        <v>688780</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>773354</v>
+        <v>772963</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4328619616130114</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.408886250258204</v>
+        <v>0.4071807472823936</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4571774617669235</v>
+        <v>0.456946554520814</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>802</v>
@@ -1478,19 +1478,19 @@
         <v>826533</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>786726</v>
+        <v>780163</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>868137</v>
+        <v>866676</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5209416978417141</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4958525482991425</v>
+        <v>0.4917163001014107</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5471637323291066</v>
+        <v>0.5462428527520976</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1518</v>
@@ -1499,19 +1499,19 @@
         <v>1558755</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1496391</v>
+        <v>1499497</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1612966</v>
+        <v>1614055</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4754916502986474</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4564678022474575</v>
+        <v>0.4574154199513767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4920285806279237</v>
+        <v>0.4923606062721972</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>10913</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5595</v>
+        <v>4996</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20435</v>
+        <v>20030</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01979198794612766</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01014624746431901</v>
+        <v>0.009059983177313007</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03705945690264904</v>
+        <v>0.0363256979660406</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -1624,19 +1624,19 @@
         <v>5096</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11126</v>
+        <v>11255</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01069629826161566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004202301732136259</v>
+        <v>0.004199511424368335</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02335464441412767</v>
+        <v>0.02362475568080507</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1645,19 +1645,19 @@
         <v>16009</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9318</v>
+        <v>9239</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26923</v>
+        <v>25348</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01557598299172066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009066037679320791</v>
+        <v>0.008988558059637828</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02619380815297716</v>
+        <v>0.02466211726520293</v>
       </c>
     </row>
     <row r="17">
@@ -1674,7 +1674,7 @@
         <v>27347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18334</v>
+        <v>18670</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>38938</v>
@@ -1683,10 +1683,10 @@
         <v>0.04959436537115405</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03324888226012893</v>
+        <v>0.03385878871988731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07061560288417526</v>
+        <v>0.07061636998535106</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1695,19 +1695,19 @@
         <v>12298</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6861</v>
+        <v>6942</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20878</v>
+        <v>19771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02581364483822046</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01440054444145233</v>
+        <v>0.01457213272518558</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04382325837595449</v>
+        <v>0.04149965948231373</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>40</v>
@@ -1716,19 +1716,19 @@
         <v>39645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>28920</v>
+        <v>28257</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>54661</v>
+        <v>52960</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03857160194542539</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02813750252561191</v>
+        <v>0.02749242853049654</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05318158918423514</v>
+        <v>0.05152701571554606</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>88261</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>71373</v>
+        <v>72156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>106585</v>
+        <v>108086</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.16006565819942</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1294378210097194</v>
+        <v>0.1308575743641424</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1932965425626124</v>
+        <v>0.1960190014854916</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>59</v>
@@ -1766,19 +1766,19 @@
         <v>60268</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46365</v>
+        <v>46115</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75177</v>
+        <v>76060</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1265043437388121</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09732188277380442</v>
+        <v>0.09679623359618954</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1577991402124997</v>
+        <v>0.1596512326948981</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>145</v>
@@ -1787,19 +1787,19 @@
         <v>148530</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>127431</v>
+        <v>126390</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>171590</v>
+        <v>171858</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1445094251978402</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1239818251613393</v>
+        <v>0.122968598354114</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1669452706418907</v>
+        <v>0.1672060849737853</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>155762</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>135392</v>
+        <v>134213</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>182025</v>
+        <v>177952</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2824799405319668</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2455395133814442</v>
+        <v>0.2434010792662149</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3301086066868811</v>
+        <v>0.3227228742214236</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>123</v>
@@ -1837,19 +1837,19 @@
         <v>129878</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111257</v>
+        <v>111026</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151119</v>
+        <v>149931</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2726170713553176</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2335310021750339</v>
+        <v>0.2330458950603181</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3172031448983298</v>
+        <v>0.3147093929634776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>271</v>
@@ -1858,19 +1858,19 @@
         <v>285640</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>255421</v>
+        <v>256974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>313993</v>
+        <v>316343</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2779083349961902</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2485070431960714</v>
+        <v>0.2500181657761218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3054937947659861</v>
+        <v>0.3077804594967644</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>269125</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>246231</v>
+        <v>246822</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>292436</v>
+        <v>295112</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4880680479513315</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4465491680683823</v>
+        <v>0.4476216330326309</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5303448345579671</v>
+        <v>0.5351966639891609</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>253</v>
@@ -1908,19 +1908,19 @@
         <v>268872</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>247637</v>
+        <v>244887</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>292449</v>
+        <v>289303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5643686418060342</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5197957083599666</v>
+        <v>0.5140235693516954</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6138574717119062</v>
+        <v>0.6072544878883886</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>508</v>
@@ -1929,19 +1929,19 @@
         <v>537997</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>505156</v>
+        <v>505664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>569642</v>
+        <v>570828</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5234346548688236</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4914828750300222</v>
+        <v>0.4919768156215164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5542235287970122</v>
+        <v>0.5553772958989798</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>74106</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57977</v>
+        <v>57954</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>95041</v>
+        <v>92932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02263706308896276</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01771014915616418</v>
+        <v>0.01770292683570138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02903192798216335</v>
+        <v>0.02838784786091489</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>62</v>
@@ -2054,19 +2054,19 @@
         <v>63049</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>49776</v>
+        <v>49267</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80861</v>
+        <v>81184</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01866923044671853</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0147390912339077</v>
+        <v>0.014588260660082</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02394354015809129</v>
+        <v>0.02403924686130665</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>133</v>
@@ -2075,19 +2075,19 @@
         <v>137155</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>114447</v>
+        <v>114430</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>162686</v>
+        <v>163787</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02062227594292272</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01720787844786798</v>
+        <v>0.0172053830011654</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02446099748269104</v>
+        <v>0.02462646900479864</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>187038</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160773</v>
+        <v>163955</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>214297</v>
+        <v>219366</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.05713393358480894</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04911086754620883</v>
+        <v>0.05008297250891716</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0654607560825945</v>
+        <v>0.06700903563829967</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>110</v>
@@ -2125,19 +2125,19 @@
         <v>113213</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>92617</v>
+        <v>94699</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>135845</v>
+        <v>138077</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03352310567325092</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02742448251367718</v>
+        <v>0.02804091576828992</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04022451328318728</v>
+        <v>0.04088552173940645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>294</v>
@@ -2146,19 +2146,19 @@
         <v>300251</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>266505</v>
+        <v>271567</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>333388</v>
+        <v>336731</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04514482091984934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04007097805963238</v>
+        <v>0.04083202192745165</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05012726296433984</v>
+        <v>0.05062986262077465</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>516574</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>473243</v>
+        <v>474105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>557930</v>
+        <v>557945</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1577966028534657</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1445604598619452</v>
+        <v>0.1448235949463249</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1704295678912087</v>
+        <v>0.1704339942374989</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>440</v>
@@ -2196,19 +2196,19 @@
         <v>444465</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>408345</v>
+        <v>405748</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>488519</v>
+        <v>486766</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1316088977983254</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1209135471987036</v>
+        <v>0.120144682878876</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1446536528872455</v>
+        <v>0.1441347106904677</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>949</v>
@@ -2217,19 +2217,19 @@
         <v>961039</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>907923</v>
+        <v>907915</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1024938</v>
+        <v>1016248</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1444990028066196</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1365126528172702</v>
+        <v>0.1365114375851447</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1541066689013366</v>
+        <v>0.1528001717769665</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>944294</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>896181</v>
+        <v>893752</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>999396</v>
+        <v>992330</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2884510666534963</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2737540171136866</v>
+        <v>0.2730122837051124</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3052829617082556</v>
+        <v>0.3031245565041444</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>852</v>
@@ -2267,19 +2267,19 @@
         <v>870825</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>821529</v>
+        <v>821968</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>919158</v>
+        <v>923883</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2578569248226917</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.243260098915253</v>
+        <v>0.2433901454853151</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2721688886469132</v>
+        <v>0.2735679957042363</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1767</v>
@@ -2288,19 +2288,19 @@
         <v>1815119</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1743412</v>
+        <v>1748689</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1894359</v>
+        <v>1890639</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2729159649335894</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2621344253691106</v>
+        <v>0.2629277493887835</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.284830330568197</v>
+        <v>0.2842710121528773</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>1551659</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1494908</v>
+        <v>1495695</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1608410</v>
+        <v>1606654</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4739813338192663</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4566458179377809</v>
+        <v>0.4568862245678326</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4913168865691118</v>
+        <v>0.4907806166780536</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1831</v>
@@ -2338,19 +2338,19 @@
         <v>1885611</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1832242</v>
+        <v>1826592</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1947350</v>
+        <v>1939167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5583418412590134</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5425389307739784</v>
+        <v>0.5408660012248312</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5766232823267281</v>
+        <v>0.5742002409764182</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3363</v>
@@ -2359,19 +2359,19 @@
         <v>3437270</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3359844</v>
+        <v>3359202</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3516693</v>
+        <v>3520563</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5168179353970189</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5051763927080075</v>
+        <v>0.5050799193207782</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5287597377369444</v>
+        <v>0.5293416324904602</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>16579</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9979</v>
+        <v>9986</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25481</v>
+        <v>26503</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01706373477584439</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01027049150067594</v>
+        <v>0.01027861796040913</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02622669724105942</v>
+        <v>0.02727828139982959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -2723,19 +2723,19 @@
         <v>17294</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10280</v>
+        <v>9362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>28669</v>
+        <v>26655</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01293789805598042</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007690807019935074</v>
+        <v>0.007004035125658686</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02144788423158666</v>
+        <v>0.01994073976013135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2744,19 +2744,19 @@
         <v>33873</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>23104</v>
+        <v>24077</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47681</v>
+        <v>47759</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0146745086188699</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01000930347010904</v>
+        <v>0.01043090979588516</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02065667490292529</v>
+        <v>0.02069045069646892</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>20788</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13450</v>
+        <v>13024</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31898</v>
+        <v>32137</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02139578238806658</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01384345050159669</v>
+        <v>0.01340509547438616</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03283068867218094</v>
+        <v>0.03307733440125501</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>24</v>
@@ -2794,19 +2794,19 @@
         <v>27879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18097</v>
+        <v>18295</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40977</v>
+        <v>41396</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02085689587998522</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01353851967834655</v>
+        <v>0.0136863962911069</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03065501075594181</v>
+        <v>0.03096873289216491</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -2815,19 +2815,19 @@
         <v>48667</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>35979</v>
+        <v>36205</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>63884</v>
+        <v>64176</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02108371920472493</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01558692684512592</v>
+        <v>0.01568483263788437</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02767614833077676</v>
+        <v>0.02780235212064234</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>87345</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>70691</v>
+        <v>70365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>106516</v>
+        <v>106860</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08989962984676489</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07275832928833739</v>
+        <v>0.07242337780946108</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1096321311998476</v>
+        <v>0.1099859848704088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -2865,19 +2865,19 @@
         <v>78684</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>61817</v>
+        <v>62577</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>97356</v>
+        <v>98008</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05886473576326223</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04624605116253815</v>
+        <v>0.04681431515071168</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07283347661889385</v>
+        <v>0.07332056949669201</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>159</v>
@@ -2886,19 +2886,19 @@
         <v>166029</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143148</v>
+        <v>142302</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>192956</v>
+        <v>192048</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0719276678526698</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06201487931682331</v>
+        <v>0.06164847457383211</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08359285924283547</v>
+        <v>0.08319970712413859</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>173415</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149602</v>
+        <v>148428</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>201016</v>
+        <v>197277</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1784877109425622</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1539785153953408</v>
+        <v>0.1527695196592714</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2068957447358271</v>
+        <v>0.2030477681041746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>166</v>
@@ -2936,19 +2936,19 @@
         <v>180617</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>154987</v>
+        <v>153937</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>205795</v>
+        <v>206418</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1351213206463845</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.115947939959715</v>
+        <v>0.1151617419963187</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1539577348061232</v>
+        <v>0.1544239191046897</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -2957,19 +2957,19 @@
         <v>354032</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320782</v>
+        <v>321732</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>395496</v>
+        <v>389953</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1533747166424367</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1389703258574375</v>
+        <v>0.1393817509457463</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1713379548215423</v>
+        <v>0.1689368721136116</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>673454</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>643425</v>
+        <v>645927</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>700776</v>
+        <v>704086</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6931531420467619</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6622455795227302</v>
+        <v>0.6648211315156257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7212743344775968</v>
+        <v>0.7246813594961076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>966</v>
@@ -3007,19 +3007,19 @@
         <v>1032225</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1002221</v>
+        <v>1000479</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1064780</v>
+        <v>1064272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7722191496543876</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7497731409586866</v>
+        <v>0.7484702692084582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7965738801228381</v>
+        <v>0.79619412063675</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1588</v>
@@ -3028,19 +3028,19 @@
         <v>1705678</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1662652</v>
+        <v>1665042</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1747290</v>
+        <v>1748493</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7389393876812987</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.720299621250864</v>
+        <v>0.7213348168855629</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.756966497821719</v>
+        <v>0.7574876639850344</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>46947</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>35199</v>
+        <v>34662</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>63692</v>
+        <v>63053</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0239157946538053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01793143712526551</v>
+        <v>0.0176578756092187</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03244640014024338</v>
+        <v>0.03212071911029898</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -3153,19 +3153,19 @@
         <v>43295</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31951</v>
+        <v>31475</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>61471</v>
+        <v>59892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02471780514830134</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01824170704500414</v>
+        <v>0.01796993029678557</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0350950366032745</v>
+        <v>0.03419330288513366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -3174,19 +3174,19 @@
         <v>90241</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73547</v>
+        <v>73295</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>112371</v>
+        <v>112578</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02429397443894163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01979974436228885</v>
+        <v>0.0197316945124843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03025136577923928</v>
+        <v>0.03030714226369117</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>73980</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>58463</v>
+        <v>59416</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>93515</v>
+        <v>93316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03768741019776958</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02978245683113638</v>
+        <v>0.03026794266343928</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04763874434134254</v>
+        <v>0.04753742602633833</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>53</v>
@@ -3224,19 +3224,19 @@
         <v>58701</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>44168</v>
+        <v>44917</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>75558</v>
+        <v>74791</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03351344023091919</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02521628296067715</v>
+        <v>0.02564368891431769</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04313729824374503</v>
+        <v>0.04269980753951421</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>123</v>
@@ -3245,19 +3245,19 @@
         <v>132681</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>110253</v>
+        <v>110575</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158187</v>
+        <v>158974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03571921766654731</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02968129740206374</v>
+        <v>0.02976785223387715</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0425856761692513</v>
+        <v>0.04279749508075852</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>239405</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>209823</v>
+        <v>208783</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>268946</v>
+        <v>269255</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1219587283253728</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1068889926463192</v>
+        <v>0.1063592635058877</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1370079540123479</v>
+        <v>0.1371652216869792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>157</v>
@@ -3295,19 +3295,19 @@
         <v>166058</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>142140</v>
+        <v>141411</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>193168</v>
+        <v>194535</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.09480585501735204</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08115055409643605</v>
+        <v>0.08073414493216217</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1102831469584015</v>
+        <v>0.1110638987057277</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>386</v>
@@ -3316,19 +3316,19 @@
         <v>405463</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>368516</v>
+        <v>368708</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>448882</v>
+        <v>442833</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1091550706875586</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.09920833379635513</v>
+        <v>0.09926009760488638</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1208439841064046</v>
+        <v>0.1192153493838229</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>501491</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>460974</v>
+        <v>465377</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>540483</v>
+        <v>543252</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2554719045931733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2348314400449437</v>
+        <v>0.2370747159053102</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2753354671026365</v>
+        <v>0.2767458855206774</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>384</v>
@@ -3366,19 +3366,19 @@
         <v>415642</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>379612</v>
+        <v>381211</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>452817</v>
+        <v>452425</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2372979683013217</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.216727392371465</v>
+        <v>0.2176406849896027</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2585214420521686</v>
+        <v>0.2582981227824225</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>856</v>
@@ -3387,19 +3387,19 @@
         <v>917133</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>864573</v>
+        <v>868477</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>972284</v>
+        <v>979931</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2469021721905411</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2327523799916106</v>
+        <v>0.2338032969245667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2617492377455305</v>
+        <v>0.2638078431288174</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>1101176</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1053721</v>
+        <v>1055589</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1142769</v>
+        <v>1145687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5609661622298789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5367916315165407</v>
+        <v>0.5377432490182912</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5821547563135806</v>
+        <v>0.5836413475222464</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>997</v>
@@ -3437,19 +3437,19 @@
         <v>1067867</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1025676</v>
+        <v>1023631</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1111782</v>
+        <v>1110480</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6096649313021056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5855777832635946</v>
+        <v>0.5844099805101578</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6347371658106143</v>
+        <v>0.6339937436593288</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2035</v>
@@ -3458,19 +3458,19 @@
         <v>2169043</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2105902</v>
+        <v>2101825</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2225326</v>
+        <v>2227877</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5839295650164114</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5669313942145094</v>
+        <v>0.5658339343376613</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5990816401702135</v>
+        <v>0.5997684039539922</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>10323</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5081</v>
+        <v>5064</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19977</v>
+        <v>18608</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02150060563891206</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01058291248922039</v>
+        <v>0.01054680676995661</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04160566756660834</v>
+        <v>0.03875597258622996</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -3583,19 +3583,19 @@
         <v>6843</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2024</v>
+        <v>2850</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14629</v>
+        <v>14782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01491998868249065</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004412682195550321</v>
+        <v>0.006214687633669311</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03189770829198794</v>
+        <v>0.03222997286268443</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -3604,19 +3604,19 @@
         <v>17166</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9257</v>
+        <v>10109</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28751</v>
+        <v>29258</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01828568662398519</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009860944762304393</v>
+        <v>0.0107683811764704</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0306265360519821</v>
+        <v>0.03116635258082172</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>13987</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7811</v>
+        <v>7813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>23266</v>
+        <v>23826</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02913180122827011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01626859334588574</v>
+        <v>0.01627254154311081</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04845728328709571</v>
+        <v>0.04962244190082109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -3654,19 +3654,19 @@
         <v>8883</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4728</v>
+        <v>4896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>16942</v>
+        <v>17335</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01936915711007371</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01030869672512427</v>
+        <v>0.01067458045642667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03694135245393263</v>
+        <v>0.03779675887794041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -3675,19 +3675,19 @@
         <v>22871</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14592</v>
+        <v>14620</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33775</v>
+        <v>34227</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02436232286181895</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01554383668087266</v>
+        <v>0.01557327873539843</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03597788143950156</v>
+        <v>0.03645913534570044</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>57188</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>43434</v>
+        <v>43484</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72389</v>
+        <v>74223</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1191071830638413</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09046181277456533</v>
+        <v>0.09056532446247012</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1507657951882469</v>
+        <v>0.1545868126371449</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>24</v>
@@ -3725,19 +3725,19 @@
         <v>27475</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17630</v>
+        <v>18211</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40241</v>
+        <v>40290</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05990548737272863</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0384407125713646</v>
+        <v>0.0397062257705764</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08774064293070409</v>
+        <v>0.08784760851958405</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>78</v>
@@ -3746,19 +3746,19 @@
         <v>84663</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>69230</v>
+        <v>67391</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>105350</v>
+        <v>104497</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09018456707605789</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07374518838930148</v>
+        <v>0.07178598576728824</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1122212360274756</v>
+        <v>0.1113119923169448</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>134383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>114464</v>
+        <v>115863</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>157743</v>
+        <v>156273</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2798825032785878</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2383967552568018</v>
+        <v>0.2413097236217323</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3285338135814495</v>
+        <v>0.3254733735035054</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>94</v>
@@ -3796,19 +3796,19 @@
         <v>105635</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87038</v>
+        <v>86316</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>126299</v>
+        <v>126530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2303267171050458</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.189778181838287</v>
+        <v>0.1882032344805956</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2753822012889164</v>
+        <v>0.2758868983632538</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>219</v>
@@ -3817,19 +3817,19 @@
         <v>240018</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>213328</v>
+        <v>212578</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>267970</v>
+        <v>271513</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2556723357025056</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.227241243767512</v>
+        <v>0.2264430458119344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2854472274546845</v>
+        <v>0.2892214644323835</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>264259</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>240520</v>
+        <v>241838</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286713</v>
+        <v>286484</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5503779067903888</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5009364167347075</v>
+        <v>0.5036814252013132</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5971436795298461</v>
+        <v>0.5966657748074269</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>279</v>
@@ -3867,19 +3867,19 @@
         <v>309795</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>288454</v>
+        <v>288595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>331862</v>
+        <v>331792</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6754786497296612</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6289457786044621</v>
+        <v>0.6292534164916129</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7235925269255541</v>
+        <v>0.7234392545726133</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>515</v>
@@ -3888,19 +3888,19 @@
         <v>574054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>542019</v>
+        <v>538111</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>605639</v>
+        <v>604761</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6114950877356323</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5773702741600056</v>
+        <v>0.5732069184942479</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6451392477447395</v>
+        <v>0.6442047214965518</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>73849</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>57234</v>
+        <v>57774</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>93466</v>
+        <v>93760</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02162660012487481</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01676088377637736</v>
+        <v>0.01691913222907795</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02737141158159274</v>
+        <v>0.02745760433851964</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>61</v>
@@ -4013,19 +4013,19 @@
         <v>67432</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>53456</v>
+        <v>52914</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>86049</v>
+        <v>87671</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01901146749185668</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01507121111111875</v>
+        <v>0.01491837574820758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02426041238666458</v>
+        <v>0.02471780175390853</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>133</v>
@@ -4034,19 +4034,19 @@
         <v>141280</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>116621</v>
+        <v>119505</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>166645</v>
+        <v>166051</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02029420827412709</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01675198614079175</v>
+        <v>0.01716624241471059</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02393777025377499</v>
+        <v>0.02385237606231896</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>108755</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>88176</v>
+        <v>90024</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129573</v>
+        <v>132602</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03184900342605373</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02582244247676263</v>
+        <v>0.02636347654066028</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03794552129456587</v>
+        <v>0.03883249475035849</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>86</v>
@@ -4084,19 +4084,19 @@
         <v>95464</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77092</v>
+        <v>76565</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>120617</v>
+        <v>117203</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02691470903386448</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02173499541481512</v>
+        <v>0.02158652436167267</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03400632294009313</v>
+        <v>0.03304381283952192</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>190</v>
@@ -4105,19 +4105,19 @@
         <v>204219</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>178331</v>
+        <v>176220</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>236444</v>
+        <v>234896</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02933501482205868</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02561631622309573</v>
+        <v>0.02531308281093136</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0339639418892712</v>
+        <v>0.03374158117974493</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>383938</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>348415</v>
+        <v>346198</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>425178</v>
+        <v>420521</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1124360918904091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.102033326593222</v>
+        <v>0.1013841377074911</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1245133754365878</v>
+        <v>0.1231495244303968</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>255</v>
@@ -4155,19 +4155,19 @@
         <v>272217</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>241734</v>
+        <v>238975</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>306587</v>
+        <v>305859</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07674812426311949</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06815360124284305</v>
+        <v>0.06737580925992198</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08643826090433884</v>
+        <v>0.08623279870873984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>623</v>
@@ -4176,19 +4176,19 @@
         <v>656155</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>601191</v>
+        <v>605712</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>706145</v>
+        <v>705956</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.09425332110624772</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08635799323197244</v>
+        <v>0.08700744741439195</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1014340391272986</v>
+        <v>0.1014070009283433</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>809289</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>755807</v>
+        <v>757819</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>859666</v>
+        <v>864583</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.237000166340085</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2213379055335561</v>
+        <v>0.2219271426539774</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2517529335030708</v>
+        <v>0.2531930701429737</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>644</v>
@@ -4226,19 +4226,19 @@
         <v>701894</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>651127</v>
+        <v>651659</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>747164</v>
+        <v>753202</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1978897812799652</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1835768539979646</v>
+        <v>0.1837266838295961</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2106531546091061</v>
+        <v>0.2123553107275568</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1401</v>
@@ -4247,19 +4247,19 @@
         <v>1511183</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1445401</v>
+        <v>1437426</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1593730</v>
+        <v>1578617</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2170736977259221</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2076244290318691</v>
+        <v>0.2064789326282939</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2289311551430064</v>
+        <v>0.2267602755871553</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>2038889</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1969331</v>
+        <v>1979124</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2093277</v>
+        <v>2095271</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5970881382185773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5767180068175015</v>
+        <v>0.5795861674751098</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6130156370336449</v>
+        <v>0.613599563975204</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2242</v>
@@ -4297,19 +4297,19 @@
         <v>2409887</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2355152</v>
+        <v>2352489</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2470423</v>
+        <v>2470515</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6794359179311941</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6640041669954154</v>
+        <v>0.663253490288226</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6965034748169094</v>
+        <v>0.696529203880227</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4138</v>
@@ -4318,19 +4318,19 @@
         <v>4448775</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4360416</v>
+        <v>4368117</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4529725</v>
+        <v>4530786</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6390437580716444</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6263513506396382</v>
+        <v>0.6274576200180793</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6506717127952407</v>
+        <v>0.6508242283288206</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>15353</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8485</v>
+        <v>8713</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24549</v>
+        <v>24308</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02046028943862332</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0113073469846254</v>
+        <v>0.01161220668387287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03271618521675199</v>
+        <v>0.03239470421809408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4682,19 +4682,19 @@
         <v>12583</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6238</v>
+        <v>6351</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21711</v>
+        <v>20295</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01266402282455094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006278423920503186</v>
+        <v>0.006391945675242245</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02185174710031223</v>
+        <v>0.02042629370587667</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -4703,19 +4703,19 @@
         <v>27935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19111</v>
+        <v>19157</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39582</v>
+        <v>40136</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01601848945046051</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01095855339923927</v>
+        <v>0.01098481289294352</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02269705583663746</v>
+        <v>0.02301459969639005</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>18973</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12041</v>
+        <v>11615</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>29982</v>
+        <v>30107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02528571235322631</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01604766960109827</v>
+        <v>0.01547909865108329</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03995717269761191</v>
+        <v>0.04012399615711604</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>23</v>
@@ -4753,19 +4753,19 @@
         <v>24295</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>14907</v>
+        <v>15575</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>35351</v>
+        <v>35790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02445190514841109</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01500335287992003</v>
+        <v>0.015675375421165</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03557971658049531</v>
+        <v>0.03602110905179241</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>41</v>
@@ -4774,19 +4774,19 @@
         <v>43268</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>31988</v>
+        <v>30303</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>60939</v>
+        <v>55717</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02481066384400868</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01834245591465431</v>
+        <v>0.01737622749228254</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03494314303854661</v>
+        <v>0.03194916922215972</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>72758</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>56452</v>
+        <v>58372</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>89383</v>
+        <v>90924</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09696396112632703</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0752341278112864</v>
+        <v>0.07779240798049843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.119120685949904</v>
+        <v>0.1211741885273088</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>70</v>
@@ -4824,19 +4824,19 @@
         <v>76276</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>59124</v>
+        <v>58540</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>94263</v>
+        <v>95563</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07676902861139376</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05950606845088767</v>
+        <v>0.05891857114937283</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09487239282409063</v>
+        <v>0.0961804645261234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>142</v>
@@ -4845,19 +4845,19 @@
         <v>149034</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>126226</v>
+        <v>126994</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>173455</v>
+        <v>175654</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08545821671734721</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07237967966842183</v>
+        <v>0.07282039760837226</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09946163490300056</v>
+        <v>0.100722865197098</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>214507</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>189665</v>
+        <v>189260</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>238745</v>
+        <v>238975</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2858732034500489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2527661249523214</v>
+        <v>0.2522271595641344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3181748002779486</v>
+        <v>0.3184812606459957</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>231</v>
@@ -4895,19 +4895,19 @@
         <v>250919</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>223516</v>
+        <v>222278</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>281202</v>
+        <v>280073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.252540286263073</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2249599663133389</v>
+        <v>0.2237145163742127</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2830183344702147</v>
+        <v>0.2818826078767857</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>447</v>
@@ -4916,19 +4916,19 @@
         <v>465426</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>428350</v>
+        <v>431338</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>501535</v>
+        <v>504001</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2668822994064013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2456222542910309</v>
+        <v>0.2473358139975767</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2875874356836456</v>
+        <v>0.2890015595433955</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>428767</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>401085</v>
+        <v>402330</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>456458</v>
+        <v>456361</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5714168336317744</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5345256235428907</v>
+        <v>0.5361847489210293</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6083213840872016</v>
+        <v>0.6081914836481076</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>555</v>
@@ -4966,19 +4966,19 @@
         <v>629508</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>596799</v>
+        <v>597209</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>658800</v>
+        <v>661458</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6335747571525713</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6006542632686788</v>
+        <v>0.6010672878931056</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6630559079916161</v>
+        <v>0.6657311314625658</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>992</v>
@@ -4987,19 +4987,19 @@
         <v>1058274</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1014645</v>
+        <v>1015715</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1100866</v>
+        <v>1099946</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6068303305817823</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5818124851855681</v>
+        <v>0.5824258403417402</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6312530506023446</v>
+        <v>0.6307256094136928</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>61287</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>46244</v>
+        <v>45686</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79355</v>
+        <v>78284</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02955631099453622</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02230147994127082</v>
+        <v>0.02203236164652842</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03826955990367153</v>
+        <v>0.03775316823336181</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -5112,19 +5112,19 @@
         <v>50883</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37889</v>
+        <v>38658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>64987</v>
+        <v>66202</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02565245225412551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01910153729547012</v>
+        <v>0.01948942427282858</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03276317113443931</v>
+        <v>0.03337536352311558</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>105</v>
@@ -5133,19 +5133,19 @@
         <v>112170</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>91421</v>
+        <v>93135</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>135724</v>
+        <v>137418</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02764769390936975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02253335334731358</v>
+        <v>0.02295596801915017</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03345325105705949</v>
+        <v>0.03387076088721225</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>89574</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>72907</v>
+        <v>73479</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110786</v>
+        <v>110290</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04319763020237742</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03516001658652812</v>
+        <v>0.03543599152520803</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05342741873318607</v>
+        <v>0.05318846016908442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -5183,19 +5183,19 @@
         <v>73164</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>56253</v>
+        <v>56759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>90965</v>
+        <v>91063</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03688537469660799</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02835988841256563</v>
+        <v>0.02861505256280853</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04585975682400525</v>
+        <v>0.04590927322587594</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>155</v>
@@ -5204,19 +5204,19 @@
         <v>162737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>139672</v>
+        <v>140539</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>189897</v>
+        <v>187850</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04011153526263578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03442624514926643</v>
+        <v>0.03463999791963815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0468058792079078</v>
+        <v>0.04630126656199121</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>318755</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>288839</v>
+        <v>286429</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>354648</v>
+        <v>354051</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1537225521532708</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1392953532406943</v>
+        <v>0.1381329119435991</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1710321911433126</v>
+        <v>0.1707442045644503</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>245</v>
@@ -5254,19 +5254,19 @@
         <v>254197</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>224601</v>
+        <v>224890</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>288291</v>
+        <v>285653</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.128152577304938</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1132319661436587</v>
+        <v>0.1133777649989102</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1453411290257298</v>
+        <v>0.1440111251147144</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>538</v>
@@ -5275,19 +5275,19 @@
         <v>572952</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>529754</v>
+        <v>528599</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>621007</v>
+        <v>623556</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1412212568687825</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1305736776925608</v>
+        <v>0.1302889867682785</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1530658051223468</v>
+        <v>0.153694179600312</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>644687</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>596500</v>
+        <v>596727</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>681940</v>
+        <v>689353</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3109061956058963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2876675655100237</v>
+        <v>0.2877768361617497</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3288714982177793</v>
+        <v>0.332446506994681</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>576</v>
@@ -5325,19 +5325,19 @@
         <v>593311</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>553113</v>
+        <v>551393</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>635019</v>
+        <v>634492</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2991159455706177</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2788500239290663</v>
+        <v>0.2779832473836039</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3201428647716711</v>
+        <v>0.3198769037410816</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1194</v>
@@ -5346,19 +5346,19 @@
         <v>1237998</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1178223</v>
+        <v>1177829</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1298645</v>
+        <v>1300707</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3051418803086297</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2904085357789575</v>
+        <v>0.2903114341703282</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3200900225652962</v>
+        <v>0.3205983637835884</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>959272</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>915107</v>
+        <v>911878</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1003487</v>
+        <v>1009604</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4626173110439193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4413183707064295</v>
+        <v>0.4397614912559199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4839407760629854</v>
+        <v>0.4868903164691748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>962</v>
@@ -5396,19 +5396,19 @@
         <v>1011994</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>965674</v>
+        <v>969399</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1053865</v>
+        <v>1055907</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5101936501737109</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4868416768459559</v>
+        <v>0.4887196924765129</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5313029004549219</v>
+        <v>0.5323319781307837</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1862</v>
@@ -5417,19 +5417,19 @@
         <v>1971266</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1907777</v>
+        <v>1905284</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2037292</v>
+        <v>2040811</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4858776336505823</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4702289773823076</v>
+        <v>0.4696143351176002</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.50215166724543</v>
+        <v>0.5030190194800187</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>9871</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4996</v>
+        <v>4953</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18002</v>
+        <v>17777</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01805014507042674</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009136271501473883</v>
+        <v>0.009056607694860193</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03291797746665243</v>
+        <v>0.03250548206961163</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -5542,19 +5542,19 @@
         <v>8032</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3813</v>
+        <v>3820</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15063</v>
+        <v>15363</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01462617091728566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.006943019496968498</v>
+        <v>0.006956119113687041</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02743098326885031</v>
+        <v>0.02797602610986409</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -5563,19 +5563,19 @@
         <v>17903</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10826</v>
+        <v>10720</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26931</v>
+        <v>27403</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01633463703538114</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009877556865778922</v>
+        <v>0.009780814845832283</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02457156628801603</v>
+        <v>0.02500231525793702</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>20894</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12363</v>
+        <v>13314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>31887</v>
+        <v>33410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0382052133477833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02260587750676574</v>
+        <v>0.02434581877778737</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05830728543474174</v>
+        <v>0.06109200905975011</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>17</v>
@@ -5613,19 +5613,19 @@
         <v>17617</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>10948</v>
+        <v>10663</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>29068</v>
+        <v>27754</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03208093142410248</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01993742503684984</v>
+        <v>0.01941800885625918</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05293373983300592</v>
+        <v>0.0505409062122962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>36</v>
@@ -5634,19 +5634,19 @@
         <v>38511</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>27817</v>
+        <v>27997</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53677</v>
+        <v>52469</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03513677463327935</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02537988478767542</v>
+        <v>0.02554374231324366</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04897415080724996</v>
+        <v>0.04787184085262128</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>65803</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>51409</v>
+        <v>50974</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>85216</v>
+        <v>81928</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1203233079495753</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09400332478777346</v>
+        <v>0.09320768101682225</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1558203215740462</v>
+        <v>0.1498081692775275</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>70</v>
@@ -5684,19 +5684,19 @@
         <v>69895</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54741</v>
+        <v>56297</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>86684</v>
+        <v>87762</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1272808445952986</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09968567656978461</v>
+        <v>0.1025176937697437</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1578536430236097</v>
+        <v>0.1598168998284996</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>128</v>
@@ -5705,19 +5705,19 @@
         <v>135698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>115315</v>
+        <v>114274</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>160241</v>
+        <v>160779</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1238092308818244</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1052122791115131</v>
+        <v>0.1042616825603058</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1462013883447062</v>
+        <v>0.1466924061949522</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>143034</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>122912</v>
+        <v>121028</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>165027</v>
+        <v>164380</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2615417630726959</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2247480246156985</v>
+        <v>0.2213030458804701</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3017575744193089</v>
+        <v>0.3005739600349925</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>127</v>
@@ -5755,19 +5755,19 @@
         <v>129908</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111254</v>
+        <v>110165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>151975</v>
+        <v>151479</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2365661304852328</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2025974456618644</v>
+        <v>0.2006136234166069</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2767517283850027</v>
+        <v>0.275847357988996</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>259</v>
@@ -5776,19 +5776,19 @@
         <v>272942</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>244410</v>
+        <v>242367</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>301901</v>
+        <v>299395</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2490282637097309</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2229967409008881</v>
+        <v>0.2211321396702158</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2754506600541835</v>
+        <v>0.2731634820586148</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>307284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>283976</v>
+        <v>281617</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>332846</v>
+        <v>332363</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5618795705595188</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5192595843440702</v>
+        <v>0.514946034196777</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6086211052834685</v>
+        <v>0.6077367176174844</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>304</v>
@@ -5826,19 +5826,19 @@
         <v>323688</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>299635</v>
+        <v>297931</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>349365</v>
+        <v>347502</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5894459225780804</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5456440240076885</v>
+        <v>0.5425407241055002</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6362047671165713</v>
+        <v>0.6328115299095399</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>586</v>
@@ -5847,19 +5847,19 @@
         <v>630973</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>598332</v>
+        <v>597529</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>666264</v>
+        <v>665990</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5756910937397842</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5459098698589284</v>
+        <v>0.5451769022346996</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6078901455525713</v>
+        <v>0.6076402049477304</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>86511</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67909</v>
+        <v>69524</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>106645</v>
+        <v>107797</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0256647251227724</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02014616736894388</v>
+        <v>0.02062519677548036</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03163785147142496</v>
+        <v>0.03197957990835969</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>70</v>
@@ -5972,19 +5972,19 @@
         <v>71497</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56537</v>
+        <v>56253</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91878</v>
+        <v>89757</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02027565662485044</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01603307346518287</v>
+        <v>0.015952522554438</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02605541880908378</v>
+        <v>0.02545388690398196</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -5993,19 +5993,19 @@
         <v>158009</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>134304</v>
+        <v>134292</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>185665</v>
+        <v>184371</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02290945890861631</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01947256854220452</v>
+        <v>0.01947084128062671</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02691936681996894</v>
+        <v>0.02673167572682756</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>129441</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>107653</v>
+        <v>106450</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>155383</v>
+        <v>150934</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03840039178017526</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0319368452733679</v>
+        <v>0.03157978703166302</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04609653109106378</v>
+        <v>0.04477673757316769</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>111</v>
@@ -6043,19 +6043,19 @@
         <v>115076</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>94397</v>
+        <v>95488</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>138057</v>
+        <v>137822</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03263386420229168</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02676965095162574</v>
+        <v>0.02707903778957908</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03915098762491346</v>
+        <v>0.03908423091513436</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>232</v>
@@ -6064,19 +6064,19 @@
         <v>244517</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>215380</v>
+        <v>215478</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>276027</v>
+        <v>280883</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03545214226089961</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03122760471397157</v>
+        <v>0.0312418388614141</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04002085004272127</v>
+        <v>0.04072483347684355</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>457316</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>416087</v>
+        <v>418330</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>500135</v>
+        <v>502425</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1356691314897205</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1234379740101547</v>
+        <v>0.1241033702850808</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1483720834523743</v>
+        <v>0.1490513693028873</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>385</v>
@@ -6114,19 +6114,19 @@
         <v>400368</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>363373</v>
+        <v>364139</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>441841</v>
+        <v>439409</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1135387138059619</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1030473535039032</v>
+        <v>0.1032647046937758</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1252998773857817</v>
+        <v>0.1246100780280351</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>808</v>
@@ -6135,19 +6135,19 @@
         <v>857684</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>800514</v>
+        <v>802094</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>913379</v>
+        <v>916869</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1243545244898773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1160654521778356</v>
+        <v>0.1162945458470838</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1324295767349676</v>
+        <v>0.1329356081143112</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>1002228</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>945394</v>
+        <v>947134</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1056433</v>
+        <v>1059921</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2973248004466926</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2804642495091972</v>
+        <v>0.280980347116183</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3134054434938803</v>
+        <v>0.3144403691405356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>934</v>
@@ -6185,19 +6185,19 @@
         <v>974139</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>918599</v>
+        <v>921166</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1023256</v>
+        <v>1028209</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2762517530631642</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2605015393383313</v>
+        <v>0.2612293831226677</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2901807223199103</v>
+        <v>0.2915852698025819</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1900</v>
@@ -6206,19 +6206,19 @@
         <v>1976366</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1899711</v>
+        <v>1897499</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2062977</v>
+        <v>2049014</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2865507946036541</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2754366095380362</v>
+        <v>0.2751158760526715</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2991083107755719</v>
+        <v>0.2970838285778744</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>1695322</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1637117</v>
+        <v>1635067</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1761776</v>
+        <v>1751339</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5029409511606392</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4856735023234084</v>
+        <v>0.4850654888650003</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5226553417843878</v>
+        <v>0.5195591548602976</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1821</v>
@@ -6256,19 +6256,19 @@
         <v>1965191</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1904692</v>
+        <v>1905615</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2025081</v>
+        <v>2022123</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5573000123037317</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5401432915108498</v>
+        <v>0.5404051909702086</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.574284118667543</v>
+        <v>0.5734452603498795</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3440</v>
@@ -6277,19 +6277,19 @@
         <v>3660513</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3561959</v>
+        <v>3584464</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3737079</v>
+        <v>3746409</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5307330797369527</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.51644387172012</v>
+        <v>0.5197068572628316</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5418342379097132</v>
+        <v>0.5431870276995074</v>
       </c>
     </row>
     <row r="27">
